--- a/demo/tablas_excel/CR/10_credenciales.xlsx
+++ b/demo/tablas_excel/CR/10_credenciales.xlsx
@@ -480,28 +480,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.970000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="D2" t="n">
-        <v>18.26</v>
+        <v>30.23</v>
       </c>
       <c r="E2" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91</v>
+        <v>2.956</v>
       </c>
       <c r="G2" t="n">
-        <v>32.96</v>
+        <v>72.73999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.226136363636364</v>
+        <v>0.1397058823529411</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09999999999999983</v>
+        <v>0.09999999999999988</v>
       </c>
     </row>
     <row r="3">
@@ -509,28 +509,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="D3" t="n">
-        <v>20.53</v>
+        <v>22.56</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.732</v>
       </c>
       <c r="G3" t="n">
-        <v>34.63</v>
+        <v>62.68</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09999999999999991</v>
+        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="4">
@@ -538,28 +538,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="C4" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D4" t="n">
-        <v>25.76</v>
+        <v>19.21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>0.92</v>
+        <v>2.731</v>
       </c>
       <c r="G4" t="n">
-        <v>39.21</v>
+        <v>59.65</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="5">
@@ -567,28 +567,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.74</v>
+        <v>7.34</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="D5" t="n">
-        <v>31.86</v>
+        <v>20.96</v>
       </c>
       <c r="E5" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="F5" t="n">
-        <v>0.93</v>
+        <v>2.731</v>
       </c>
       <c r="G5" t="n">
-        <v>45.46</v>
+        <v>60.99</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09999999999999992</v>
+        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="6">
@@ -596,28 +596,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.55</v>
+        <v>7.57</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D6" t="n">
-        <v>24.91</v>
+        <v>40.94</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="F6" t="n">
-        <v>0.87</v>
+        <v>2.732</v>
       </c>
       <c r="G6" t="n">
-        <v>38.17</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09999999999999992</v>
+        <v>0.09999999999999983</v>
       </c>
     </row>
     <row r="7">
@@ -625,28 +625,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.64</v>
+        <v>7.74</v>
       </c>
       <c r="C7" t="n">
         <v>0.27</v>
       </c>
       <c r="D7" t="n">
-        <v>33.53</v>
+        <v>25.52</v>
       </c>
       <c r="E7" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="F7" t="n">
-        <v>1.07</v>
+        <v>2.738</v>
       </c>
       <c r="G7" t="n">
-        <v>47.01</v>
+        <v>66.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09999999999999989</v>
+        <v>0.09999999999999984</v>
       </c>
     </row>
     <row r="8">
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.039999999999999</v>
+        <v>7.51</v>
       </c>
       <c r="C8" t="n">
         <v>0.29</v>
       </c>
       <c r="D8" t="n">
-        <v>21.6</v>
+        <v>19.38</v>
       </c>
       <c r="E8" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F8" t="n">
-        <v>0.96</v>
+        <v>2.732</v>
       </c>
       <c r="G8" t="n">
-        <v>35.53</v>
+        <v>58.94</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="9">
@@ -683,28 +683,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.21</v>
+        <v>7.87</v>
       </c>
       <c r="C9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.29</v>
       </c>
-      <c r="D9" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.37</v>
-      </c>
       <c r="F9" t="n">
-        <v>0.95</v>
+        <v>2.731</v>
       </c>
       <c r="G9" t="n">
-        <v>34.04</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="10">
@@ -712,28 +712,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.47</v>
+        <v>7.96</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="D10" t="n">
-        <v>24.94</v>
+        <v>25.84</v>
       </c>
       <c r="E10" t="n">
         <v>0.34</v>
       </c>
       <c r="F10" t="n">
-        <v>0.93</v>
+        <v>2.735</v>
       </c>
       <c r="G10" t="n">
-        <v>38.6</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="11">
@@ -741,28 +741,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.9</v>
+        <v>7.63</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="D11" t="n">
-        <v>23.19</v>
+        <v>26.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.729</v>
       </c>
       <c r="G11" t="n">
-        <v>37.13</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="12">
@@ -770,28 +770,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.51</v>
+        <v>7.73</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="D12" t="n">
-        <v>19.61</v>
+        <v>23.47</v>
       </c>
       <c r="E12" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="F12" t="n">
-        <v>3.85</v>
+        <v>2.734</v>
       </c>
       <c r="G12" t="n">
-        <v>36.23</v>
+        <v>63.35</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999984</v>
       </c>
     </row>
     <row r="13">
@@ -799,28 +799,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.41</v>
+        <v>7.75</v>
       </c>
       <c r="C13" t="n">
         <v>0.26</v>
       </c>
       <c r="D13" t="n">
-        <v>21.31</v>
+        <v>23.82</v>
       </c>
       <c r="E13" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F13" t="n">
-        <v>0.95</v>
+        <v>2.845</v>
       </c>
       <c r="G13" t="n">
-        <v>35.15</v>
+        <v>65</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999984</v>
       </c>
     </row>
     <row r="14">
@@ -828,22 +828,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.57</v>
+        <v>7.71</v>
       </c>
       <c r="C14" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D14" t="n">
-        <v>37.31</v>
+        <v>23.42</v>
       </c>
       <c r="E14" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="F14" t="n">
-        <v>0.97</v>
+        <v>2.735</v>
       </c>
       <c r="G14" t="n">
-        <v>51.59</v>
+        <v>63.68</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -857,28 +857,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.130000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="C15" t="n">
         <v>0.27</v>
       </c>
       <c r="D15" t="n">
-        <v>18.94</v>
+        <v>20.91</v>
       </c>
       <c r="E15" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="F15" t="n">
-        <v>0.98</v>
+        <v>2.733</v>
       </c>
       <c r="G15" t="n">
-        <v>33.23</v>
+        <v>61.12</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="16">
@@ -886,28 +886,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.73</v>
+        <v>7.65</v>
       </c>
       <c r="C16" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="D16" t="n">
-        <v>25.17</v>
+        <v>26.55</v>
       </c>
       <c r="E16" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="F16" t="n">
-        <v>0.98</v>
+        <v>2.733</v>
       </c>
       <c r="G16" t="n">
-        <v>39.01</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09999999999999992</v>
+        <v>0.09999999999999984</v>
       </c>
     </row>
     <row r="17">
@@ -915,28 +915,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.69</v>
+        <v>7.89</v>
       </c>
       <c r="C17" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="D17" t="n">
-        <v>19.94</v>
+        <v>21.91</v>
       </c>
       <c r="E17" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="F17" t="n">
-        <v>0.98</v>
+        <v>2.737</v>
       </c>
       <c r="G17" t="n">
-        <v>34.02</v>
+        <v>62.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999984</v>
       </c>
     </row>
     <row r="18">
@@ -944,28 +944,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.79</v>
+        <v>9.25</v>
       </c>
       <c r="C18" t="n">
         <v>0.28</v>
       </c>
       <c r="D18" t="n">
-        <v>25.89</v>
+        <v>16.74</v>
       </c>
       <c r="E18" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="F18" t="n">
-        <v>0.96</v>
+        <v>2.734</v>
       </c>
       <c r="G18" t="n">
-        <v>39.44</v>
+        <v>58.35</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09999999999999992</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="19">
@@ -973,28 +973,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.79</v>
+        <v>7.6</v>
       </c>
       <c r="C19" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="D19" t="n">
-        <v>25.42</v>
+        <v>23.47</v>
       </c>
       <c r="E19" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="F19" t="n">
-        <v>0.97</v>
+        <v>2.734</v>
       </c>
       <c r="G19" t="n">
-        <v>39.5</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="20">
@@ -1002,28 +1002,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.07</v>
+        <v>7.76</v>
       </c>
       <c r="C20" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="D20" t="n">
-        <v>19.27</v>
+        <v>18.67</v>
       </c>
       <c r="E20" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="F20" t="n">
-        <v>0.96</v>
+        <v>2.914</v>
       </c>
       <c r="G20" t="n">
-        <v>33.42</v>
+        <v>60.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="21">
@@ -1031,28 +1031,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.029999999999999</v>
+        <v>7.71</v>
       </c>
       <c r="C21" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="D21" t="n">
-        <v>20.09</v>
+        <v>18.33</v>
       </c>
       <c r="E21" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9</v>
+        <v>2.733</v>
       </c>
       <c r="G21" t="n">
-        <v>34.18</v>
+        <v>58.34</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="22">
@@ -1060,28 +1060,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.7</v>
+        <v>7.92</v>
       </c>
       <c r="C22" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="D22" t="n">
-        <v>19.92</v>
+        <v>19.83</v>
       </c>
       <c r="E22" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="F22" t="n">
-        <v>0.93</v>
+        <v>2.731</v>
       </c>
       <c r="G22" t="n">
-        <v>34.03</v>
+        <v>59.86</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="23">
@@ -1089,28 +1089,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.66</v>
+        <v>8.16</v>
       </c>
       <c r="C23" t="n">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
       <c r="D23" t="n">
-        <v>20.2</v>
+        <v>26.19</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="F23" t="n">
-        <v>0.99</v>
+        <v>2.737</v>
       </c>
       <c r="G23" t="n">
-        <v>33.72</v>
+        <v>61.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="24">
@@ -1118,28 +1118,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.68</v>
+        <v>10.79</v>
       </c>
       <c r="C24" t="n">
         <v>0.27</v>
       </c>
       <c r="D24" t="n">
-        <v>20.19</v>
+        <v>18.1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="F24" t="n">
-        <v>0.98</v>
+        <v>2.734</v>
       </c>
       <c r="G24" t="n">
-        <v>34.15</v>
+        <v>59.42</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="25">
@@ -1147,28 +1147,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.87</v>
+        <v>7.75</v>
       </c>
       <c r="C25" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D25" t="n">
-        <v>22.09</v>
+        <v>18.96</v>
       </c>
       <c r="E25" t="n">
-        <v>0.36</v>
+        <v>0.3221739130434782</v>
       </c>
       <c r="F25" t="n">
-        <v>0.97</v>
+        <v>2.755695652173913</v>
       </c>
       <c r="G25" t="n">
-        <v>36.41</v>
+        <v>63.44999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999985</v>
       </c>
     </row>
     <row r="26">
@@ -1176,28 +1176,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.66</v>
+        <v>7.52</v>
       </c>
       <c r="C26" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="D26" t="n">
-        <v>20.61</v>
+        <v>22.91416666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.34</v>
+        <v>0.3221739130434782</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99</v>
+        <v>2.755695652173913</v>
       </c>
       <c r="G26" t="n">
-        <v>34.64</v>
+        <v>63.44999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09999999999999994</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
